--- a/prueba1.xlsx
+++ b/prueba1.xlsx
@@ -324,13 +324,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -432,8 +438,8 @@
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -457,7 +463,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -782,140 +788,140 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
